--- a/biology/Médecine/Déficit_en_alpha-1-antitrypsine/Déficit_en_alpha-1-antitrypsine.xlsx
+++ b/biology/Médecine/Déficit_en_alpha-1-antitrypsine/Déficit_en_alpha-1-antitrypsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en alpha-1-antitrypsine (AAT) est une des maladies génétiques les plus fréquentes. La plupart des personnes sont porteuses de deux copies du gène sauvage M (SERPINA1) qui code l'AAT. Ces personnes ont un taux normal de la protéine. 95 % pour des cas graves sont porteurs d'une mutation qui conduit à la substitution de l'acide glutamique en position 342 par de la lysine (allèle Z ). Les formes atténuées sont la conséquence d'une autre mutation : l'acide glutamique en 264 est remplacé par de la valine (allèle S). Dans la péninsule Ibérique, 1 personne sur 4 porte cette mutation. Beaucoup d'autres mutations, infiniment plus rares, ont été décrites[1]. La maladie entraine l'accumulation de l'ATT[à vérifier] dans les hépatocytes et ne peut pas être excrétée. Ceci entraîne un risque accru de développer un emphysème panlobulaire, et, dans certains cas, une maladie hépatique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en alpha-1-antitrypsine (AAT) est une des maladies génétiques les plus fréquentes. La plupart des personnes sont porteuses de deux copies du gène sauvage M (SERPINA1) qui code l'AAT. Ces personnes ont un taux normal de la protéine. 95 % pour des cas graves sont porteurs d'une mutation qui conduit à la substitution de l'acide glutamique en position 342 par de la lysine (allèle Z ). Les formes atténuées sont la conséquence d'une autre mutation : l'acide glutamique en 264 est remplacé par de la valine (allèle S). Dans la péninsule Ibérique, 1 personne sur 4 porte cette mutation. Beaucoup d'autres mutations, infiniment plus rares, ont été décrites. La maladie entraine l'accumulation de l'ATT[à vérifier] dans les hépatocytes et ne peut pas être excrétée. Ceci entraîne un risque accru de développer un emphysème panlobulaire, et, dans certains cas, une maladie hépatique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie semble largement sous-diagnostiquée[2].
-Les descendants d'Européens du nord ont le plus gros risque d'être porteurs de la maladie. Quatre pour cent portent l'allèle PiZZ (homozygote). L'incidence de la maladie est d'environ 1 sur 5 000[3].
-Le tabagisme[4], le fait d'être un garçon ou d'être asthmatique[5], semblent majorer le risque d'atteinte pulmonaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie semble largement sous-diagnostiquée.
+Les descendants d'Européens du nord ont le plus gros risque d'être porteurs de la maladie. Quatre pour cent portent l'allèle PiZZ (homozygote). L'incidence de la maladie est d'environ 1 sur 5 000.
+Le tabagisme, le fait d'être un garçon ou d'être asthmatique, semblent majorer le risque d'atteinte pulmonaire.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir l'article alpha-1-antitrypsine pour une discussion des divers génotypes et phénotypes associés au déficit en AAT.
 L'alpha-1-antitrypsine est une glycoprotéine de la famille des serpines, stockée et sécrétée par le foie en cas d'inflammation. Elle est inhibitrice des sérines protéases (comme la trypsine, la chymotrypsine, la thrombine, la plasmine, les lipases, l'élastase). De ce fait, elle protège les tissus contre des enzymes produites par des cellules inflammatoires, particulièrement l'élastase. On la trouve dans le sang humain à des taux de 0,9 à 1,75 gramme/litre avec une demi-vie de 3 à 5 jours.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,25 +595,27 @@
           <t>Maladies associées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en α1-antitrypsine a été associé à de nombreuses maladies :
 Asthme
 Bronchopneumopathie chronique obstructive (BPCO)
-Stéatose hépatique[6] et cirrhose
+Stéatose hépatique et cirrhose
 Granulomatose de Wegener
 Pancréatite
 Calculs biliaires
 Bronchectasie (peut-être)
-Prolapsus génital[7]
+Prolapsus génital
 Cancer
 Carcinome hépatocellulaire (foie)
 Carcinome de la vessie
 Carcinome de la vésicule biliaire
 Lymphome
 Cancer du poumon
-Il existe également plus de diabète, d'hypertension artérielle et d'insuffisance rénale[8].
-Les formes hétérozygotes de la maladie présentent plus de BPCO[9], de calculs biliaires[10].
+Il existe également plus de diabète, d'hypertension artérielle et d'insuffisance rénale.
+Les formes hétérozygotes de la maladie présentent plus de BPCO, de calculs biliaires.
 </t>
         </is>
       </c>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,13 +644,15 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des patients sont asymptomatiques. La maladie peut entraîner des symptômes :
-Un emphysème pulmonaire responsable de troubles respiratoires : essentiellement une dyspnée (essoufflement), parfois toux ou respiration sifflante. Il peut être accompagné d'une dilatation des bronches dans un quart des cas[11]. En effet, les poumons sont remplis d'élastine. Si on a trop d'élastase dans le sang parce qu'elle ne peut pas être dégradée par l'alpha-1-antitrypsine, on risque de dégrader les fibres élastiques de cette armature.
+Un emphysème pulmonaire responsable de troubles respiratoires : essentiellement une dyspnée (essoufflement), parfois toux ou respiration sifflante. Il peut être accompagné d'une dilatation des bronches dans un quart des cas. En effet, les poumons sont remplis d'élastine. Si on a trop d'élastase dans le sang parce qu'elle ne peut pas être dégradée par l'alpha-1-antitrypsine, on risque de dégrader les fibres élastiques de cette armature.
 Des anomalies du foie car les hépatocytes sont abîmés par l'accumulation de alpha-1-antitrypsine. Les hépatocytes se nécrosent, on observe une réaction inflammatoire et une fibrose, pouvant aller jusqu'à la cirrhose, dont les complications principales sont : une hypertension portale (entraînant parfois des varices œsophagiennes), une hyperammoniémie (l'effet détoxifiant du foie étant amoindri), un ictère, un manque de sécrétion de protéines hépatiques. Ceci pouvant nécessiter une transplantation hépatique.
-Ces manifestations peu spécifiques font que le diagnostic est souvent retardé[12].
-Plus rarement, la maladie peut se manifester par des atteintes de la peau de type vascularite nécrosante[13].
+Ces manifestations peu spécifiques font que le diagnostic est souvent retardé.
+Plus rarement, la maladie peut se manifester par des atteintes de la peau de type vascularite nécrosante.
 </t>
         </is>
       </c>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,11 +681,13 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être fait par le dosage de l'alpha 1-antitrypsine dans le sang : il est effondré dans la forme homozygote mais peut être sensiblement normal chez les hétérozygotes. Cette analyse peut être éventuellement complétée par le phénotypage de la protéine, qui peut orienter vers certaines variantes génétiques.
-L'analyse génétique par des kits commerciaux permet de distinguer les deux principaux variants (PI*S et PI*Z)[14].
-Il peut également être fait par une biopsie afin d'évaluer la gravité des lésions hépatiques. La biopsie du foie comporte un risque extrêmement faible mais potentiellement sérieux d'effets secondaires, tels que des saignements. Elle est donc réservée aux patients ayant des problèmes hépatiques continus[15].
+L'analyse génétique par des kits commerciaux permet de distinguer les deux principaux variants (PI*S et PI*Z).
+Il peut également être fait par une biopsie afin d'évaluer la gravité des lésions hépatiques. La biopsie du foie comporte un risque extrêmement faible mais potentiellement sérieux d'effets secondaires, tels que des saignements. Elle est donc réservée aux patients ayant des problèmes hépatiques continus.
 </t>
         </is>
       </c>
@@ -676,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,21 +716,93 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge du déficit a fait l'objet de recommandations publiées en 2003 par l'American Thoracic Society et l'European Respiratory Society[16].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge du déficit a fait l'objet de recommandations publiées en 2003 par l'American Thoracic Society et l'European Respiratory Society.
 Le déficit en alpha 1-antitrypsine ne peut être guéri, mais il est possible de ralentir l'évolution de la maladie, grâce à une bonne hygiène de vie et à un traitement substitutif.
 Les traitements sont plus ou moins efficaces en fonction du degré d'importance de la maladie. À faible évolution, seule une bonne hygiène de vie est nécessaire. Le traitement de l'emphysème n'a rien de spécifique : bronchodilatateurs et corticoïdes.
-Hygiène de vie
-Ne pas fumer activement ou passivement est un moyen plutôt efficace de ralentir l'évolution de la maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hygiène de vie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ne pas fumer activement ou passivement est un moyen plutôt efficace de ralentir l'évolution de la maladie.
 La vaccination contre les différentes maladies atteignant le foie ou les poumons, telles que l'hépatite A et B, la grippe, la pneumonie, est conseillée.
-Traitement substitutif
-En 1970 on découvre que la protéase élastase peut donner des emphysèmes chez l'animal de laboratoire. On a la première description de l'élastase sur le neutrophile humain, avec des modifications identiques à celles  observées chez l'animal. L'élastase des neutrophiles humains est inhibée par alpha-1-antitrypsine. On a aussi découvert que le foie était une cible au même titre que les poumons[17]. En 1990 on a compris que la déficience en alpha-1-antitrypsine plasmatique était en fait un défaut de la structure tertiaire de la protéine avec polymérisation dans le foie. Cette polymérisation entraîne une accumulation de la protéine et semblait, sinon être la cause, du moins contribuer à la maladie hépatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Déficit_en_alpha-1-antitrypsine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_alpha-1-antitrypsine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traitement substitutif</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1970 on découvre que la protéase élastase peut donner des emphysèmes chez l'animal de laboratoire. On a la première description de l'élastase sur le neutrophile humain, avec des modifications identiques à celles  observées chez l'animal. L'élastase des neutrophiles humains est inhibée par alpha-1-antitrypsine. On a aussi découvert que le foie était une cible au même titre que les poumons. En 1990 on a compris que la déficience en alpha-1-antitrypsine plasmatique était en fait un défaut de la structure tertiaire de la protéine avec polymérisation dans le foie. Cette polymérisation entraîne une accumulation de la protéine et semblait, sinon être la cause, du moins contribuer à la maladie hépatique.
 Une équipe du NIH observe qu'une augmentation de l'alpha-1-antitrypsine plasmatique améliorerait l'état des malades souffrant de la maladie pulmonaire. Ils ont mis au point un processus de purification à partir de plasma humain de cette protéine. La technique de purification a été fournie aux industriels du fractionnement plasmatique. La FDA a approuvé la commercialisation d'une préparation extractive sur les bases d'une efficacité biochimique et d'une tolérance acceptable. En parallèle le NIH s'est associé à la constitution d'un registre des malades souffrant d'un déficit en alpha-1-antitrypsine. 1129 malades ont été inclus dans ce suivi qui a duré cinq ans pendant lequel on a évalué la fonction pulmonaire et la fonction hépatique. Ce premier registre a donné lieu à de nombreuses publications.
 Un premier médicament a reçu une AMM de la FDA en 1987. Jusqu'en 2003 ce médicament a été le seul disponible pour augmenter la concentration plasmatique en alpha-1-antitrypsine. L'administration se faisait chaque semaine et était bien tolérée au cours du temps. Deux nouvelles spécialités ont été autorisées en 2003 au fondement d'une efficacité biochimique identique et d'une bonne tolérance. En 2010 une quatrième spécialité a été autorisée sur les mêmes bases.
-Après quelques essais cliniques préliminaires, une grande étude contre placebo et bien contrôlée a échoué à trouver un bénéfice thérapeutique[21].
-L'étude EXACTLE utilise comme critère d'évaluation la tomographie par scanner X et l'exacerbation des symptômes. Elle conclut à l'amélioration clinique des patients traités[22].
-D'autres pistes sont étudiées pour le traitement du déficit en alpha-1-antitrypsine : un traitement à base de protéines recombinantes, des inhibiteurs de l'élastase des neutrophiles en traitement oral sont en phase préclinique, des traitements à visée hépatique comprenant l'extinction du gène à l'origine de la protéine, la structure tertiaire de la protéine, l'utilisation de protéine chaperon[23].
+Après quelques essais cliniques préliminaires, une grande étude contre placebo et bien contrôlée a échoué à trouver un bénéfice thérapeutique.
+L'étude EXACTLE utilise comme critère d'évaluation la tomographie par scanner X et l'exacerbation des symptômes. Elle conclut à l'amélioration clinique des patients traités.
+D'autres pistes sont étudiées pour le traitement du déficit en alpha-1-antitrypsine : un traitement à base de protéines recombinantes, des inhibiteurs de l'élastase des neutrophiles en traitement oral sont en phase préclinique, des traitements à visée hépatique comprenant l'extinction du gène à l'origine de la protéine, la structure tertiaire de la protéine, l'utilisation de protéine chaperon.
 </t>
         </is>
       </c>
